--- a/src/assets/fxsj_mb/fxtb_f052_jsjbxx.xlsx
+++ b/src/assets/fxsj_mb/fxtb_f052_jsjbxx.xlsx
@@ -61,7 +61,7 @@
     <t>所在单位</t>
   </si>
   <si>
-    <t>奉贤分校</t>
+    <t>杨浦分校</t>
   </si>
   <si>
     <t>康**</t>
@@ -159,9 +159,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -202,13 +202,75 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -217,10 +279,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,110 +302,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -348,13 +348,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,163 +498,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,24 +559,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -591,6 +573,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,21 +608,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -636,6 +618,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,10 +662,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,133 +674,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,12 +1142,12 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K17" sqref="K16:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="5.41666666666667" customWidth="1"/>
+    <col min="1" max="1" width="8.33333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="11.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="9.55555555555556" customWidth="1"/>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:15">
       <c r="A2" s="3">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B2" s="3">
-        <v>31009</v>
+        <v>31030</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:15">
       <c r="A3" s="3">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B3" s="3">
-        <v>31009</v>
+        <v>31030</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -1306,10 +1306,10 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:15">
       <c r="A4" s="3">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B4" s="3">
-        <v>31009</v>
+        <v>31030</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -1353,10 +1353,10 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:15">
       <c r="A5" s="3">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B5" s="3">
-        <v>31009</v>
+        <v>31030</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>

--- a/src/assets/fxsj_mb/fxtb_f052_jsjbxx.xlsx
+++ b/src/assets/fxsj_mb/fxtb_f052_jsjbxx.xlsx
@@ -161,8 +161,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -196,7 +196,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,7 +204,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +218,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -225,6 +256,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -233,7 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,31 +295,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,14 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -303,30 +326,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,19 +348,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,163 +528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,11 +559,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +605,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -603,39 +627,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,6 +645,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -662,10 +662,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,133 +674,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K16:K17"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4"/>
